--- a/data/0.reference/2.look_ups/SNNP/kebeles_field.xlsx
+++ b/data/0.reference/2.look_ups/SNNP/kebeles_field.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
   <si>
     <t xml:space="preserve">Region</t>
   </si>
@@ -248,45 +248,84 @@
     <t xml:space="preserve">wushezewuyar</t>
   </si>
   <si>
+    <t xml:space="preserve">meskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bati fato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bati leajano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bechea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dirama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dobena bati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dobena gola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dobo tuto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enseno 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enseno 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enseno usime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gidena aborati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jolle 2 enaa 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merab meskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">michaello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">misrak ember</t>
+  </si>
+  <si>
     <t xml:space="preserve">misrak meskan</t>
   </si>
   <si>
-    <t xml:space="preserve">bamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bati fato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bati leajano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bechea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dobena bati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dobena gola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enseno 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enseno 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enseno usime</t>
-  </si>
-  <si>
     <t xml:space="preserve">ocha geneme</t>
   </si>
   <si>
+    <t xml:space="preserve">semen shershera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wurib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yetebon</t>
+  </si>
+  <si>
     <t xml:space="preserve">yimer 1st</t>
   </si>
   <si>
@@ -296,45 +335,6 @@
     <t xml:space="preserve">yimer 3rd</t>
   </si>
   <si>
-    <t xml:space="preserve">missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dirama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dobo tuto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gidena aborati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jolle 2 enaa 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merab meskan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">michaello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">misrak ember</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semen shershera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wurib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yetebon</t>
-  </si>
-  <si>
     <t xml:space="preserve">hadiya</t>
   </si>
   <si>
@@ -440,30 +440,294 @@
     <t xml:space="preserve">sundusa</t>
   </si>
   <si>
-    <t xml:space="preserve">halaba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atoti hullo</t>
+    <t xml:space="preserve">kembata tembaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angacha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambaricho wa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angacha 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angecha kalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bucha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donkoricho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fandide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hobicho melis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mesana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damboya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dato darabora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hebadato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homaancho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kazala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kota kombola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hadero tunto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st tunto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amelaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galibe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hachacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lachacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kacha bira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hobicheka 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hobicheka ga/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wonko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dalocha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ebote terora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enkat agamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metaya dange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadugne agamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadugne lola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hulbareg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bilawanja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demekea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todea temeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wacho ebissa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worabet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">misrak silti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balo keriso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debub goto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">misrak koche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seda gora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wonema duge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sankura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getem gurabayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getem ziko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gotancho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menzo gonbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regidina kore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tachi kem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abizana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arat ber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dobena enseno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eshute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gofilela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">senena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuto zogare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wogere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siltie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alaba special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st ashoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st choreka</t>
   </si>
   <si>
     <t xml:space="preserve">1st hanisha</t>
   </si>
   <si>
+    <t xml:space="preserve">1st konicha</t>
+  </si>
+  <si>
     <t xml:space="preserve">1st teffo</t>
   </si>
   <si>
+    <t xml:space="preserve">2nd ashoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd choronko</t>
+  </si>
+  <si>
     <t xml:space="preserve">2nd hansha</t>
   </si>
   <si>
     <t xml:space="preserve">2nd teffo</t>
   </si>
   <si>
+    <t xml:space="preserve">alem tena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayimele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chanbula</t>
+  </si>
+  <si>
     <t xml:space="preserve">debesa</t>
   </si>
   <si>
+    <t xml:space="preserve">dinokosa</t>
+  </si>
+  <si>
     <t xml:space="preserve">felika</t>
   </si>
   <si>
+    <t xml:space="preserve">galato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gedeba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerema</t>
+  </si>
+  <si>
     <t xml:space="preserve">gofesa</t>
   </si>
   <si>
@@ -473,352 +737,82 @@
     <t xml:space="preserve">gurura bucho</t>
   </si>
   <si>
+    <t xml:space="preserve">habiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holugeb kuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huletegna mekala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kobo geto</t>
+  </si>
+  <si>
     <t xml:space="preserve">ku/yeyo</t>
   </si>
   <si>
+    <t xml:space="preserve">kuffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la/irisho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">layegnawo lenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laygnawo bedane</t>
+  </si>
+  <si>
     <t xml:space="preserve">mejja</t>
   </si>
   <si>
     <t xml:space="preserve">mekela le</t>
   </si>
   <si>
+    <t xml:space="preserve">meyafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mirab gorntacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mis/go retancha</t>
+  </si>
+  <si>
     <t xml:space="preserve">se/bitena</t>
   </si>
   <si>
+    <t xml:space="preserve">shekate</t>
+  </si>
+  <si>
     <t xml:space="preserve">shemko halaba</t>
   </si>
   <si>
+    <t xml:space="preserve">sorege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ta/erisho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tachegnawo bedane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tachi lenda</t>
+  </si>
+  <si>
     <t xml:space="preserve">teffo cheffo</t>
   </si>
   <si>
+    <t xml:space="preserve">wanja</t>
+  </si>
+  <si>
     <t xml:space="preserve">yanbo</t>
   </si>
   <si>
     <t xml:space="preserve">yeyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st ashoka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st choreka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd ashoka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd choronko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alem tena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayimele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chanbula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dinokosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">galato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gedeba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gerema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">habiba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hamata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ho/kuke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kuffe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">la/bedene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">la/irisho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">la/lenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mekala ha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meyafa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mirab gorntacho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mis/go retancha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shekate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sorege</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ta/bedene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ta/erisho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tachi lenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wanja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wera dijjo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st konicha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kobo geto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kembata tembaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angacha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambaricho wa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angacha 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angecha kalam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bucha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donkoricho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fandide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hobicho melis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mesana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">damboya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dato darabora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hebadato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">homaancho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kazala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kota kombola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hadero tunto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st tunto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amelaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">galibe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hachacho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">homa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lachacho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kacha bira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hobicheka 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hobicheka ga/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wonko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dalocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebote terora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enkat agamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metaya dange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadugne agamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadugne lola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hulbareg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bilawanja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demekea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">todea temeda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wacho ebissa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worabet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">misrak silti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balo keriso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debub goto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">misrak koche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seda gora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wonema duge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sankura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adasha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getem gurabayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getem ziko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gotancho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jatta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menzo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menzo gonbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regidina kore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tachi kem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abizana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arat ber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dobena enseno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eshute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gofilela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">senena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tuto zogare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wogere</t>
   </si>
   <si>
     <t xml:space="preserve">wolaita</t>
@@ -2627,10 +2621,10 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" t="s">
         <v>94</v>
-      </c>
-      <c r="D86" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="87">
@@ -2641,10 +2635,10 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88">
@@ -2655,10 +2649,10 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89">
@@ -2669,10 +2663,10 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90">
@@ -2683,10 +2677,10 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91">
@@ -2697,10 +2691,10 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92">
@@ -2711,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
@@ -2725,10 +2719,10 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
@@ -2739,10 +2733,10 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D94" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
@@ -2753,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D95" t="s">
         <v>103</v>
@@ -2767,7 +2761,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D96" t="s">
         <v>104</v>
@@ -2781,7 +2775,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D97" t="s">
         <v>105</v>
@@ -2795,7 +2789,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s">
         <v>106</v>
@@ -3341,10 +3335,10 @@
         <v>142</v>
       </c>
       <c r="C137" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D137" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138">
@@ -3355,10 +3349,10 @@
         <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D138" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139">
@@ -3369,10 +3363,10 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D139" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140">
@@ -3383,10 +3377,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D140" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141">
@@ -3397,10 +3391,10 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D141" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142">
@@ -3411,10 +3405,10 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D142" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143">
@@ -3425,10 +3419,10 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D143" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144">
@@ -3439,10 +3433,10 @@
         <v>142</v>
       </c>
       <c r="C144" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D144" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145">
@@ -3453,10 +3447,10 @@
         <v>142</v>
       </c>
       <c r="C145" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D145" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146">
@@ -3467,10 +3461,10 @@
         <v>142</v>
       </c>
       <c r="C146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D146" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147">
@@ -3481,10 +3475,10 @@
         <v>142</v>
       </c>
       <c r="C147" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D147" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148">
@@ -3495,10 +3489,10 @@
         <v>142</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D148" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149">
@@ -3509,10 +3503,10 @@
         <v>142</v>
       </c>
       <c r="C149" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D149" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150">
@@ -3523,10 +3517,10 @@
         <v>142</v>
       </c>
       <c r="C150" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D150" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151">
@@ -3537,10 +3531,10 @@
         <v>142</v>
       </c>
       <c r="C151" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D151" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152">
@@ -3551,10 +3545,10 @@
         <v>142</v>
       </c>
       <c r="C152" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D152" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153">
@@ -3565,10 +3559,10 @@
         <v>142</v>
       </c>
       <c r="C153" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D153" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154">
@@ -3579,10 +3573,10 @@
         <v>142</v>
       </c>
       <c r="C154" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D154" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155">
@@ -3593,10 +3587,10 @@
         <v>142</v>
       </c>
       <c r="C155" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D155" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156">
@@ -3607,10 +3601,10 @@
         <v>142</v>
       </c>
       <c r="C156" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D156" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157">
@@ -3621,10 +3615,10 @@
         <v>142</v>
       </c>
       <c r="C157" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D157" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158">
@@ -3635,10 +3629,10 @@
         <v>142</v>
       </c>
       <c r="C158" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D158" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159">
@@ -3646,13 +3640,13 @@
         <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C159" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D159" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160">
@@ -3660,13 +3654,13 @@
         <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D160" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161">
@@ -3674,13 +3668,13 @@
         <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C161" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D161" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162">
@@ -3688,13 +3682,13 @@
         <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C162" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D162" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163">
@@ -3702,13 +3696,13 @@
         <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C163" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D163" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164">
@@ -3716,13 +3710,13 @@
         <v>4</v>
       </c>
       <c r="B164" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C164" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D164" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165">
@@ -3730,13 +3724,13 @@
         <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C165" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D165" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166">
@@ -3744,13 +3738,13 @@
         <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C166" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D166" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167">
@@ -3758,13 +3752,13 @@
         <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C167" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D167" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168">
@@ -3772,13 +3766,13 @@
         <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C168" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D168" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169">
@@ -3786,13 +3780,13 @@
         <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C169" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D169" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170">
@@ -3800,13 +3794,13 @@
         <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C170" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D170" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171">
@@ -3814,13 +3808,13 @@
         <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C171" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D171" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172">
@@ -3828,13 +3822,13 @@
         <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C172" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D172" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173">
@@ -3842,13 +3836,13 @@
         <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D173" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174">
@@ -3856,13 +3850,13 @@
         <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="D174" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175">
@@ -3870,13 +3864,13 @@
         <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D175" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176">
@@ -3884,13 +3878,13 @@
         <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C176" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D176" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177">
@@ -3898,13 +3892,13 @@
         <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C177" t="s">
         <v>195</v>
       </c>
       <c r="D177" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178">
@@ -3912,13 +3906,13 @@
         <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C178" t="s">
         <v>195</v>
       </c>
       <c r="D178" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179">
@@ -3926,13 +3920,13 @@
         <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C179" t="s">
         <v>195</v>
       </c>
       <c r="D179" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180">
@@ -3940,13 +3934,13 @@
         <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C180" t="s">
         <v>195</v>
       </c>
       <c r="D180" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181">
@@ -3954,13 +3948,13 @@
         <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C181" t="s">
         <v>195</v>
       </c>
       <c r="D181" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182">
@@ -3968,13 +3962,13 @@
         <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C182" t="s">
         <v>195</v>
       </c>
       <c r="D182" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183">
@@ -3982,13 +3976,13 @@
         <v>4</v>
       </c>
       <c r="B183" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C183" t="s">
         <v>195</v>
       </c>
       <c r="D183" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184">
@@ -3996,13 +3990,13 @@
         <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C184" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D184" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185">
@@ -4010,13 +4004,13 @@
         <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C185" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D185" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186">
@@ -4024,13 +4018,13 @@
         <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C186" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D186" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187">
@@ -4038,13 +4032,13 @@
         <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C187" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D187" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="188">
@@ -4052,13 +4046,13 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C188" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D188" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189">
@@ -4066,13 +4060,13 @@
         <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C189" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D189" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190">
@@ -4080,13 +4074,13 @@
         <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C190" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D190" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="191">
@@ -4094,13 +4088,13 @@
         <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C191" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D191" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192">
@@ -4108,13 +4102,13 @@
         <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C192" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D192" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="193">
@@ -4122,13 +4116,13 @@
         <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C193" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D193" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="194">
@@ -4136,13 +4130,13 @@
         <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C194" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D194" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195">
@@ -4150,13 +4144,13 @@
         <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C195" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D195" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196">
@@ -4164,13 +4158,13 @@
         <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C196" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D196" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197">
@@ -4178,13 +4172,13 @@
         <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C197" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D197" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198">
@@ -4192,13 +4186,13 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C198" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D198" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199">
@@ -4206,13 +4200,13 @@
         <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C199" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D199" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200">
@@ -4220,13 +4214,13 @@
         <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C200" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D200" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201">
@@ -4234,13 +4228,13 @@
         <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C201" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D201" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202">
@@ -4248,13 +4242,13 @@
         <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C202" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D202" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="203">
@@ -4262,13 +4256,13 @@
         <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C203" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D203" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204">
@@ -4276,13 +4270,13 @@
         <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C204" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D204" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205">
@@ -4290,13 +4284,13 @@
         <v>4</v>
       </c>
       <c r="B205" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D205" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206">
@@ -4304,13 +4298,13 @@
         <v>4</v>
       </c>
       <c r="B206" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C206" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D206" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207">
@@ -4318,13 +4312,13 @@
         <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C207" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D207" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208">
@@ -4332,13 +4326,13 @@
         <v>4</v>
       </c>
       <c r="B208" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C208" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D208" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="209">
@@ -4346,13 +4340,13 @@
         <v>4</v>
       </c>
       <c r="B209" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C209" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D209" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="210">
@@ -4360,13 +4354,13 @@
         <v>4</v>
       </c>
       <c r="B210" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C210" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D210" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211">
@@ -4374,13 +4368,13 @@
         <v>4</v>
       </c>
       <c r="B211" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C211" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D211" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="212">
@@ -4388,13 +4382,13 @@
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C212" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D212" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213">
@@ -4402,13 +4396,13 @@
         <v>4</v>
       </c>
       <c r="B213" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C213" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D213" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="214">
@@ -4416,13 +4410,13 @@
         <v>4</v>
       </c>
       <c r="B214" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D214" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215">
@@ -4430,13 +4424,13 @@
         <v>4</v>
       </c>
       <c r="B215" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D215" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="216">
@@ -4444,13 +4438,13 @@
         <v>4</v>
       </c>
       <c r="B216" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D216" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217">
@@ -4458,10 +4452,10 @@
         <v>4</v>
       </c>
       <c r="B217" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C217" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D217" t="s">
         <v>242</v>
@@ -4472,10 +4466,10 @@
         <v>4</v>
       </c>
       <c r="B218" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D218" t="s">
         <v>243</v>
@@ -4486,10 +4480,10 @@
         <v>4</v>
       </c>
       <c r="B219" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C219" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D219" t="s">
         <v>244</v>
@@ -4500,10 +4494,10 @@
         <v>4</v>
       </c>
       <c r="B220" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C220" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D220" t="s">
         <v>245</v>
@@ -4514,10 +4508,10 @@
         <v>4</v>
       </c>
       <c r="B221" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C221" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D221" t="s">
         <v>246</v>
@@ -4528,13 +4522,13 @@
         <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C222" t="s">
+        <v>218</v>
+      </c>
+      <c r="D222" t="s">
         <v>247</v>
-      </c>
-      <c r="D222" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="223">
@@ -4542,13 +4536,13 @@
         <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C223" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="D223" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224">
@@ -4556,13 +4550,13 @@
         <v>4</v>
       </c>
       <c r="B224" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C224" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="D224" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225">
@@ -4570,13 +4564,13 @@
         <v>4</v>
       </c>
       <c r="B225" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C225" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="D225" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="226">
@@ -4584,13 +4578,13 @@
         <v>4</v>
       </c>
       <c r="B226" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C226" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="D226" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="227">
@@ -4598,13 +4592,13 @@
         <v>4</v>
       </c>
       <c r="B227" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C227" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="D227" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="228">
@@ -4612,13 +4606,13 @@
         <v>4</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C228" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="D228" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="229">
@@ -4626,13 +4620,13 @@
         <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C229" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="D229" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="230">
@@ -4640,13 +4634,13 @@
         <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C230" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="D230" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="231">
@@ -4654,13 +4648,13 @@
         <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C231" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="D231" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="232">
@@ -4668,13 +4662,13 @@
         <v>4</v>
       </c>
       <c r="B232" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C232" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D232" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233">
@@ -4682,13 +4676,13 @@
         <v>4</v>
       </c>
       <c r="B233" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C233" t="s">
+        <v>218</v>
+      </c>
+      <c r="D233" t="s">
         <v>258</v>
-      </c>
-      <c r="D233" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="234">
@@ -4696,13 +4690,13 @@
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C234" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D234" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="235">
@@ -4710,13 +4704,13 @@
         <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C235" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D235" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="236">
@@ -4724,13 +4718,13 @@
         <v>4</v>
       </c>
       <c r="B236" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C236" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D236" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="237">
@@ -4738,13 +4732,13 @@
         <v>4</v>
       </c>
       <c r="B237" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C237" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D237" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="238">
@@ -4752,13 +4746,13 @@
         <v>4</v>
       </c>
       <c r="B238" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C238" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D238" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="239">
@@ -4766,13 +4760,13 @@
         <v>4</v>
       </c>
       <c r="B239" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C239" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D239" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="240">
@@ -4780,13 +4774,13 @@
         <v>4</v>
       </c>
       <c r="B240" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C240" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D240" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="241">
@@ -4794,13 +4788,13 @@
         <v>4</v>
       </c>
       <c r="B241" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C241" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D241" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="242">
@@ -4808,13 +4802,13 @@
         <v>4</v>
       </c>
       <c r="B242" t="s">
+        <v>267</v>
+      </c>
+      <c r="C242" t="s">
+        <v>268</v>
+      </c>
+      <c r="D242" t="s">
         <v>269</v>
-      </c>
-      <c r="C242" t="s">
-        <v>270</v>
-      </c>
-      <c r="D242" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="243">
@@ -4822,13 +4816,13 @@
         <v>4</v>
       </c>
       <c r="B243" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C243" t="s">
+        <v>268</v>
+      </c>
+      <c r="D243" t="s">
         <v>270</v>
-      </c>
-      <c r="D243" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="244">
@@ -4836,13 +4830,13 @@
         <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C244" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D244" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="245">
@@ -4850,13 +4844,13 @@
         <v>4</v>
       </c>
       <c r="B245" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C245" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D245" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="246">
@@ -4864,13 +4858,13 @@
         <v>4</v>
       </c>
       <c r="B246" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C246" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D246" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="247">
@@ -4878,13 +4872,13 @@
         <v>4</v>
       </c>
       <c r="B247" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C247" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D247" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="248">
@@ -4892,13 +4886,13 @@
         <v>4</v>
       </c>
       <c r="B248" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C248" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D248" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="249">
@@ -4906,13 +4900,13 @@
         <v>4</v>
       </c>
       <c r="B249" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C249" t="s">
+        <v>275</v>
+      </c>
+      <c r="D249" t="s">
         <v>277</v>
-      </c>
-      <c r="D249" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="250">
@@ -4920,13 +4914,13 @@
         <v>4</v>
       </c>
       <c r="B250" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C250" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D250" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="251">
@@ -4934,13 +4928,13 @@
         <v>4</v>
       </c>
       <c r="B251" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C251" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D251" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="252">
@@ -4948,13 +4942,13 @@
         <v>4</v>
       </c>
       <c r="B252" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C252" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D252" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="253">
@@ -4962,13 +4956,13 @@
         <v>4</v>
       </c>
       <c r="B253" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C253" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D253" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254">
@@ -4976,13 +4970,13 @@
         <v>4</v>
       </c>
       <c r="B254" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C254" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D254" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="255">
@@ -4990,13 +4984,13 @@
         <v>4</v>
       </c>
       <c r="B255" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C255" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D255" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="256">
@@ -5004,13 +4998,13 @@
         <v>4</v>
       </c>
       <c r="B256" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C256" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D256" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="257">
@@ -5018,13 +5012,13 @@
         <v>4</v>
       </c>
       <c r="B257" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C257" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D257" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="258">
@@ -5032,13 +5026,13 @@
         <v>4</v>
       </c>
       <c r="B258" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C258" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D258" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="259">
@@ -5046,13 +5040,13 @@
         <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C259" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D259" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="260">
@@ -5060,13 +5054,13 @@
         <v>4</v>
       </c>
       <c r="B260" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C260" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D260" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="261">
@@ -5074,13 +5068,13 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C261" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D261" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="262">
@@ -5088,13 +5082,13 @@
         <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C262" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D262" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="263">
@@ -5102,13 +5096,13 @@
         <v>4</v>
       </c>
       <c r="B263" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C263" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D263" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="264">
@@ -5116,13 +5110,13 @@
         <v>4</v>
       </c>
       <c r="B264" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C264" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D264" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="265">
@@ -5130,13 +5124,13 @@
         <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D265" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="266">
@@ -5144,13 +5138,13 @@
         <v>4</v>
       </c>
       <c r="B266" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D266" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="267">
@@ -5158,13 +5152,13 @@
         <v>4</v>
       </c>
       <c r="B267" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C267" t="s">
+        <v>294</v>
+      </c>
+      <c r="D267" t="s">
         <v>296</v>
-      </c>
-      <c r="D267" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="268">
@@ -5172,13 +5166,13 @@
         <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C268" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D268" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="269">
@@ -5186,13 +5180,13 @@
         <v>4</v>
       </c>
       <c r="B269" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C269" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D269" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="270">
@@ -5200,13 +5194,13 @@
         <v>4</v>
       </c>
       <c r="B270" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C270" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D270" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="271">
@@ -5214,13 +5208,13 @@
         <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C271" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D271" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="272">
@@ -5228,13 +5222,13 @@
         <v>4</v>
       </c>
       <c r="B272" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C272" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D272" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="273">
@@ -5242,13 +5236,13 @@
         <v>4</v>
       </c>
       <c r="B273" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C273" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D273" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="274">
@@ -5256,13 +5250,13 @@
         <v>4</v>
       </c>
       <c r="B274" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C274" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D274" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="275">
@@ -5270,13 +5264,13 @@
         <v>4</v>
       </c>
       <c r="B275" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C275" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D275" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="276">
@@ -5284,13 +5278,13 @@
         <v>4</v>
       </c>
       <c r="B276" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C276" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D276" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="277">
@@ -5298,13 +5292,13 @@
         <v>4</v>
       </c>
       <c r="B277" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C277" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D277" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="278">
@@ -5312,13 +5306,13 @@
         <v>4</v>
       </c>
       <c r="B278" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C278" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D278" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="279">
@@ -5326,13 +5320,13 @@
         <v>4</v>
       </c>
       <c r="B279" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C279" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D279" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="280">
@@ -5340,13 +5334,13 @@
         <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C280" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D280" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="281">
@@ -5354,13 +5348,13 @@
         <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C281" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D281" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="282">
@@ -5368,13 +5362,13 @@
         <v>4</v>
       </c>
       <c r="B282" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C282" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D282" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="283">
@@ -5382,13 +5376,13 @@
         <v>4</v>
       </c>
       <c r="B283" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C283" t="s">
+        <v>311</v>
+      </c>
+      <c r="D283" t="s">
         <v>313</v>
-      </c>
-      <c r="D283" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="284">
@@ -5396,13 +5390,13 @@
         <v>4</v>
       </c>
       <c r="B284" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C284" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D284" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="285">
@@ -5410,13 +5404,13 @@
         <v>4</v>
       </c>
       <c r="B285" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C285" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D285" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="286">
@@ -5424,13 +5418,13 @@
         <v>4</v>
       </c>
       <c r="B286" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C286" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D286" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="287">
@@ -5438,13 +5432,13 @@
         <v>4</v>
       </c>
       <c r="B287" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C287" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D287" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="288">
@@ -5452,13 +5446,13 @@
         <v>4</v>
       </c>
       <c r="B288" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C288" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D288" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="289">
@@ -5466,13 +5460,13 @@
         <v>4</v>
       </c>
       <c r="B289" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C289" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D289" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="290">
@@ -5480,13 +5474,13 @@
         <v>4</v>
       </c>
       <c r="B290" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C290" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D290" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="291">
@@ -5494,13 +5488,13 @@
         <v>4</v>
       </c>
       <c r="B291" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C291" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D291" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="292">
@@ -5508,13 +5502,13 @@
         <v>4</v>
       </c>
       <c r="B292" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C292" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D292" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="293">
@@ -5522,13 +5516,13 @@
         <v>4</v>
       </c>
       <c r="B293" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C293" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D293" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="294">
@@ -5536,13 +5530,13 @@
         <v>4</v>
       </c>
       <c r="B294" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C294" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D294" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="295">
@@ -5550,13 +5544,13 @@
         <v>4</v>
       </c>
       <c r="B295" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C295" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D295" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="296">
@@ -5564,13 +5558,13 @@
         <v>4</v>
       </c>
       <c r="B296" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C296" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D296" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="297">
@@ -5578,13 +5572,13 @@
         <v>4</v>
       </c>
       <c r="B297" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C297" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D297" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="298">
@@ -5592,13 +5586,13 @@
         <v>4</v>
       </c>
       <c r="B298" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C298" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D298" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="299">
@@ -5606,13 +5600,13 @@
         <v>4</v>
       </c>
       <c r="B299" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C299" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D299" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="300">
@@ -5620,13 +5614,13 @@
         <v>4</v>
       </c>
       <c r="B300" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C300" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D300" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="301">
@@ -5634,13 +5628,13 @@
         <v>4</v>
       </c>
       <c r="B301" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C301" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D301" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="302">
@@ -5648,13 +5642,13 @@
         <v>4</v>
       </c>
       <c r="B302" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C302" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D302" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="303">
@@ -5662,13 +5656,13 @@
         <v>4</v>
       </c>
       <c r="B303" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C303" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D303" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="304">
@@ -5676,13 +5670,13 @@
         <v>4</v>
       </c>
       <c r="B304" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C304" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D304" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="305">
@@ -5690,13 +5684,13 @@
         <v>4</v>
       </c>
       <c r="B305" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C305" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D305" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="306">
@@ -5704,13 +5698,13 @@
         <v>4</v>
       </c>
       <c r="B306" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C306" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D306" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="307">
@@ -5718,13 +5712,13 @@
         <v>4</v>
       </c>
       <c r="B307" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C307" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D307" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="308">
@@ -5732,13 +5726,13 @@
         <v>4</v>
       </c>
       <c r="B308" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C308" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D308" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="309">
@@ -5746,13 +5740,13 @@
         <v>4</v>
       </c>
       <c r="B309" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C309" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D309" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="310">
@@ -5760,13 +5754,13 @@
         <v>4</v>
       </c>
       <c r="B310" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C310" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D310" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="311">
@@ -5774,13 +5768,13 @@
         <v>4</v>
       </c>
       <c r="B311" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C311" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D311" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="312">
@@ -5788,13 +5782,13 @@
         <v>4</v>
       </c>
       <c r="B312" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C312" t="s">
+        <v>341</v>
+      </c>
+      <c r="D312" t="s">
         <v>343</v>
-      </c>
-      <c r="D312" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="313">
@@ -5802,13 +5796,13 @@
         <v>4</v>
       </c>
       <c r="B313" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C313" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D313" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="314">
@@ -5816,13 +5810,13 @@
         <v>4</v>
       </c>
       <c r="B314" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C314" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D314" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="315">
@@ -5830,13 +5824,13 @@
         <v>4</v>
       </c>
       <c r="B315" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C315" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D315" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="316">
@@ -5844,13 +5838,13 @@
         <v>4</v>
       </c>
       <c r="B316" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C316" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D316" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="317">
@@ -5858,13 +5852,13 @@
         <v>4</v>
       </c>
       <c r="B317" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C317" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D317" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="318">
@@ -5872,13 +5866,13 @@
         <v>4</v>
       </c>
       <c r="B318" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C318" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D318" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="319">
@@ -5886,13 +5880,13 @@
         <v>4</v>
       </c>
       <c r="B319" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C319" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D319" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="320">
@@ -5900,13 +5894,13 @@
         <v>4</v>
       </c>
       <c r="B320" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C320" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D320" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="321">
@@ -5914,13 +5908,13 @@
         <v>4</v>
       </c>
       <c r="B321" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C321" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D321" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="322">
@@ -5928,13 +5922,13 @@
         <v>4</v>
       </c>
       <c r="B322" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C322" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D322" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="323">
@@ -5942,13 +5936,13 @@
         <v>4</v>
       </c>
       <c r="B323" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C323" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D323" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="324">
@@ -5956,13 +5950,13 @@
         <v>4</v>
       </c>
       <c r="B324" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C324" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D324" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="325">
@@ -5970,13 +5964,13 @@
         <v>4</v>
       </c>
       <c r="B325" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C325" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D325" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="326">
@@ -5984,13 +5978,13 @@
         <v>4</v>
       </c>
       <c r="B326" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C326" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D326" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="327">
@@ -5998,13 +5992,13 @@
         <v>4</v>
       </c>
       <c r="B327" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C327" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D327" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="328">
@@ -6012,13 +6006,13 @@
         <v>4</v>
       </c>
       <c r="B328" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C328" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D328" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
